--- a/Data/EC/NIT-9003391508.xlsx
+++ b/Data/EC/NIT-9003391508.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{174B8773-57E7-4EC8-8861-08FE2D05DC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61962E51-015C-4B25-898B-B69E2044982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{99F4E589-94D5-48E3-AA85-A2C4B55ACB7C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{88CC640A-A395-4D12-AEAD-739F4CF6495D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,169 +65,163 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1044908020</t>
+  </si>
+  <si>
+    <t>DIONISIO GUTIERREZ VILLEGAS</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>73187322</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO VASQUEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>1047364508</t>
+  </si>
+  <si>
+    <t>CRISTIAN RODRIGUEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1044920005</t>
+  </si>
+  <si>
+    <t>JAIDER JOSE ROMERO JULIO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>7938328</t>
+  </si>
+  <si>
+    <t>ANDIS OSPINO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1044921137</t>
   </si>
   <si>
     <t>YILMAR SERRANO MARTINEZ</t>
   </si>
   <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>3829711</t>
+  </si>
+  <si>
+    <t>RAMIRO RAUL RICARDO MUÑOZ</t>
+  </si>
+  <si>
+    <t>1044926149</t>
+  </si>
+  <si>
+    <t>YONELKIN JIMENEZ PALOMINO</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>3811947</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER OLAVE CORONADO</t>
+  </si>
+  <si>
+    <t>73207822</t>
+  </si>
+  <si>
+    <t>OMAR LORENZO DAVILA NAVARRO</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>3811947</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER OLAVE CORONADO</t>
-  </si>
-  <si>
-    <t>7937166</t>
-  </si>
-  <si>
-    <t>JOSE ALEJANDRO CANDURY MARTINEZ</t>
-  </si>
-  <si>
-    <t>73207822</t>
-  </si>
-  <si>
-    <t>OMAR LORENZO DAVILA NAVARRO</t>
-  </si>
-  <si>
-    <t>7938328</t>
-  </si>
-  <si>
-    <t>ANDIS OSPINO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1044908020</t>
-  </si>
-  <si>
-    <t>DIONISIO GUTIERREZ VILLEGAS</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73187322</t>
-  </si>
-  <si>
-    <t>JOSE ALFREDO VASQUEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>1047364508</t>
-  </si>
-  <si>
-    <t>CRISTIAN RODRIGUEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>3829711</t>
-  </si>
-  <si>
-    <t>RAMIRO RAUL RICARDO MUÑOZ</t>
-  </si>
-  <si>
-    <t>1044926149</t>
-  </si>
-  <si>
-    <t>YONELKIN JIMENEZ PALOMINO</t>
-  </si>
-  <si>
-    <t>1044920005</t>
-  </si>
-  <si>
-    <t>JAIDER JOSE ROMERO JULIO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +320,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +535,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +579,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25A2EA0-6267-AB60-579D-6F37A7140601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3902B3-5ABD-A0C3-DBA8-BE69063B8E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1FAD14-9253-4927-A9DC-03802307368D}">
-  <dimension ref="B2:J178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DC00BA-05AD-4A1F-8AA7-078712015600}">
+  <dimension ref="B2:J168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1017,7 +1011,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1056,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1088,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4596819</v>
+        <v>4289537</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,14 +1104,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
         <v>33</v>
@@ -1147,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1170,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26041</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1193,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1216,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1239,7 +1233,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1262,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1285,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1308,7 +1302,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1331,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1354,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1377,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1391,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>26041</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1414,16 +1408,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1437,16 +1431,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1460,16 +1454,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1483,16 +1477,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1506,16 +1500,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1529,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1552,16 +1546,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1575,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1598,16 +1592,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>6885</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1621,16 +1615,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1644,16 +1638,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1667,16 +1661,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1690,16 +1684,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1713,16 +1707,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1736,16 +1730,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
-        <v>26041</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1759,16 +1753,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1782,16 +1776,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E43" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1805,16 +1799,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1828,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1851,19 +1845,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F46" s="18">
-        <v>26041</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1874,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1897,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1920,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1943,19 +1937,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1966,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1989,19 +1983,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2012,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2035,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2058,19 +2052,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F55" s="18">
         <v>29509</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2081,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>25774</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2104,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F57" s="18">
         <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2127,19 +2121,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18">
         <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2150,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2173,19 +2167,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2196,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>25774</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2219,19 +2213,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
         <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2242,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
         <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2265,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>37</v>
@@ -2277,7 +2271,7 @@
         <v>29509</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2288,16 +2282,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F65" s="18">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2311,16 +2305,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2334,16 +2328,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2357,16 +2351,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2380,16 +2374,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2403,16 +2397,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2426,16 +2420,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2449,16 +2443,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F72" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2472,16 +2466,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D73" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F73" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2495,16 +2489,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D74" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F74" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2518,16 +2512,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F75" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2541,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F76" s="18">
         <v>25774</v>
@@ -2564,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F77" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2587,16 +2581,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F78" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2610,16 +2604,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F79" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2633,13 +2627,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F80" s="18">
         <v>25774</v>
@@ -2656,16 +2650,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F81" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2679,16 +2673,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F82" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2702,16 +2696,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F83" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2725,16 +2719,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F84" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2748,13 +2742,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F85" s="18">
         <v>25774</v>
@@ -2771,16 +2765,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F86" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2794,16 +2788,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2817,16 +2811,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F88" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2840,16 +2834,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2863,16 +2857,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F90" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2886,16 +2880,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F91" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2909,13 +2903,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F92" s="18">
         <v>25774</v>
@@ -2932,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F93" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2955,16 +2949,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F94" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -2978,16 +2972,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F95" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3001,16 +2995,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3024,16 +3018,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F97" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3047,19 +3041,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F98" s="18">
-        <v>26041</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3070,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3093,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G100" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3116,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3139,19 +3133,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3162,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3185,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3208,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F105" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3231,19 +3225,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F106" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3254,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F107" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3277,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F108" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3300,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F109" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3323,19 +3317,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F110" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3346,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F111" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3369,19 +3363,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F112" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3392,19 +3386,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F113" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3415,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F114" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3438,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F115" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3461,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F116" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3484,19 +3478,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F117" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3507,19 +3501,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F118" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3536,13 +3530,13 @@
         <v>55</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F119" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3553,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F120" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3576,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F121" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3599,19 +3593,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F122" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3622,19 +3616,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F123" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3645,19 +3639,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F124" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3668,19 +3662,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F125" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3691,19 +3685,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F126" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3714,19 +3708,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F127" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3737,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F128" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3766,13 +3760,13 @@
         <v>57</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F129" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3783,19 +3777,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F130" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3806,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F131" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3829,16 +3823,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F132" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -3852,13 +3846,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3875,13 +3869,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -3898,13 +3892,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -3921,13 +3915,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D136" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -3944,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D137" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -3967,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D138" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -3990,13 +3984,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D139" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4013,13 +4007,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4036,13 +4030,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D141" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4059,16 +4053,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F142" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
         <v>781242</v>
@@ -4082,13 +4076,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4105,13 +4099,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4128,13 +4122,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4151,13 +4145,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4174,13 +4168,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4197,13 +4191,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4220,13 +4214,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4243,13 +4237,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4266,13 +4260,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4289,16 +4283,16 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F152" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G152" s="18">
         <v>781242</v>
@@ -4312,13 +4306,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4335,16 +4329,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4358,16 +4352,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4381,16 +4375,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4404,16 +4398,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G157" s="18">
         <v>781242</v>
@@ -4427,16 +4421,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>26041</v>
       </c>
       <c r="G158" s="18">
         <v>781242</v>
@@ -4450,16 +4444,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F159" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4473,16 +4467,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F160" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4496,16 +4490,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F161" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4515,286 +4509,56 @@
       <c r="J161" s="20"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E162" s="16" t="s">
+      <c r="B162" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F162" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G162" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F163" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G163" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F164" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G164" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G165" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F166" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G166" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="E162" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F162" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G162" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="26"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G167" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="B167" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C167" s="32"/>
+      <c r="H167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F168" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G168" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F169" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G169" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F170" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G170" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F171" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G171" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E172" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F172" s="24">
-        <v>6885</v>
-      </c>
-      <c r="G172" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H172" s="25"/>
-      <c r="I172" s="25"/>
-      <c r="J172" s="26"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C177" s="32"/>
-      <c r="H177" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="32" t="s">
+      <c r="B168" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="32"/>
+      <c r="H168" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C178" s="32"/>
-      <c r="H178" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="H167:J167"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
